--- a/resource/PassData.xlsx
+++ b/resource/PassData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -49,13 +50,64 @@
   </si>
   <si>
     <t>Shan@1</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ExpectedMessage</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Test@2468</t>
+  </si>
+  <si>
+    <t>Congratulations ! Password is valid!</t>
+  </si>
+  <si>
+    <t>Test@2rt6</t>
+  </si>
+  <si>
+    <t>Wrong Password ! Password cannot have consecutive letters or numbers like 'abc' or '123'.</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Wrong Password ! Password must be between 8 and 15 characters.</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Verify ErrorMsg for consucutive chars</t>
+  </si>
+  <si>
+    <t>Veridy Success msg for valid pasword</t>
+  </si>
+  <si>
+    <t>varify success msg for valid credential after special char some number</t>
+  </si>
+  <si>
+    <t>veri ft errormsg for 7 char password</t>
+  </si>
+  <si>
+    <t>Execution Flag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +119,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,9 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,56 +438,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -438,4 +531,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>